--- a/biology/Botanique/Moonlight_(pomme)/Moonlight_(pomme).xlsx
+++ b/biology/Botanique/Moonlight_(pomme)/Moonlight_(pomme).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Moonlight est le nom d'un cultivar de pommiers domestiques colonnaire et résistant aux races communes de tavelure.
 </t>
@@ -511,7 +523,9 @@
           <t>Synonyme</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">UEB 3727/4
 </t>
@@ -542,9 +556,11 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">2010, Institut de botanique expérimentale à Prague (Strizovice), CZ[1]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2010, Institut de botanique expérimentale à Prague (Strizovice), CZ
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Protection</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Droit communautaire des variétés de plantes: EU 26759
 </t>
@@ -604,7 +622,9 @@
           <t>Fruit</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Usage: pomme de table
 Calibre: moyen
@@ -637,7 +657,9 @@
           <t>Parenté</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Sélection du croisement  Goldstar x Telamon</t>
         </is>
@@ -667,7 +689,9 @@
           <t>Pollinisation</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Variété diploïde
 Floraison Mi-saison, groupes B-C</t>
@@ -698,7 +722,9 @@
           <t>Maladies</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>résistances aux races communes de tavelure (gène Vf)</t>
         </is>
@@ -728,7 +754,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>Port colonnaire hérité du cultivar Telamon.
 Cueillette: début octobre
